--- a/data/Enrollments.xlsx
+++ b/data/Enrollments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\College Svce\Open-Elective\open-elective-service\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645B20F4-E33B-4517-9395-CDD297166C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F95A9-A9D2-4EC9-A36C-95BC5E2F3C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I3"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
